--- a/biology/Médecine/Cegedim/Cegedim.xlsx
+++ b/biology/Médecine/Cegedim/Cegedim.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cegedim est une entreprise développant et commercialisant des bases de données et des logiciels dans le domaine de la santé. Elle est cotée à la bourse de Paris.
@@ -512,17 +524,19 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CEGEDIM (CEntre de GEstion, de Documentation, d’Informatique et de Marketing) a été créé en 1969 par Jean-Claude Labrune pour un groupe de laboratoires pharmaceutiques[5]. En 1979, Cegedim lance ses activités de gestion de la relation client en France.
-En 2005, un tiers du chiffre d'affaires de l'entreprise provient de l’international[6]. En 2007, Cegedim acquiert son concurrent américain Dendrite[7], qui constitue de sa nouvelle unité Cegedim-Dendrite.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CEGEDIM (CEntre de GEstion, de Documentation, d’Informatique et de Marketing) a été créé en 1969 par Jean-Claude Labrune pour un groupe de laboratoires pharmaceutiques. En 1979, Cegedim lance ses activités de gestion de la relation client en France.
+En 2005, un tiers du chiffre d'affaires de l'entreprise provient de l’international. En 2007, Cegedim acquiert son concurrent américain Dendrite, qui constitue de sa nouvelle unité Cegedim-Dendrite.
 En 2010, Cegedim Dendrite prend le nom de Cegedim Relationship Management (CRM) ; dans le même temps le logo du groupe change pour l'ensemble des entités majeures.
-En décembre 2009, Cegedim finalise son augmentation de capital de 180,5 M€. Cette opération lui permet de disposer de moyens importants pour entreprendre une série d’acquisitions de taille moyenne[8]. Cette levée de fonds s’est accompagnée de l’entrée du Fonds stratégique d'investissement (FSI) au capital de Cegedim. Le FSI est un investisseur qui intervient en fonds propres pour prendre des participations dans des entreprises françaises. Le FSI devient ainsi le deuxième actionnaire de Cegedim avec 15 % du capital derrière FCB qui en détient 52 %. En conséquence de cette opération, le capital social de Cegedim SA passe à 13 336 506,43 €, le nombre d'actions monte à 13 997 173.
-En juin 2014 la société IMS Health fait une proposition de rachat[9] pour 50 % des activités de Cegedim, soit toute la division « CRM et données stratégiques » et les services informatiques, pour un montant de 385 M€. La transaction a été finalisée le 1er avril 2015[10].
-En janvier 2016, Cegedim Assurances prend le nom de Cegedim Insurance Solutions[11]
-En novembre 2016, Cegedim annonce l'acquisition de Futuramedia Group, leader français de l'affichage digital en pharmacie[12].
-En janvier 2021, Maiia, une startup filiale du groupe, fait partie des trois entreprises choisies par le ministère de la santé français pour gérer les rendez-vous médicaux en ligne et les téléconsultations lors du lancement de la campagne de vaccination contre la Covid-19, après que celle-ci a connu un boom en février 2020, juste avant le confinement dû à la pandémie[13].
-En 2023, l'entreprise est touchée par l'attaque du groupe de hackers Clop sur le logiciel de transfert MOVEit[14].
+En décembre 2009, Cegedim finalise son augmentation de capital de 180,5 M€. Cette opération lui permet de disposer de moyens importants pour entreprendre une série d’acquisitions de taille moyenne. Cette levée de fonds s’est accompagnée de l’entrée du Fonds stratégique d'investissement (FSI) au capital de Cegedim. Le FSI est un investisseur qui intervient en fonds propres pour prendre des participations dans des entreprises françaises. Le FSI devient ainsi le deuxième actionnaire de Cegedim avec 15 % du capital derrière FCB qui en détient 52 %. En conséquence de cette opération, le capital social de Cegedim SA passe à 13 336 506,43 €, le nombre d'actions monte à 13 997 173.
+En juin 2014 la société IMS Health fait une proposition de rachat pour 50 % des activités de Cegedim, soit toute la division « CRM et données stratégiques » et les services informatiques, pour un montant de 385 M€. La transaction a été finalisée le 1er avril 2015.
+En janvier 2016, Cegedim Assurances prend le nom de Cegedim Insurance Solutions
+En novembre 2016, Cegedim annonce l'acquisition de Futuramedia Group, leader français de l'affichage digital en pharmacie.
+En janvier 2021, Maiia, une startup filiale du groupe, fait partie des trois entreprises choisies par le ministère de la santé français pour gérer les rendez-vous médicaux en ligne et les téléconsultations lors du lancement de la campagne de vaccination contre la Covid-19, après que celle-ci a connu un boom en février 2020, juste avant le confinement dû à la pandémie.
+En 2023, l'entreprise est touchée par l'attaque du groupe de hackers Clop sur le logiciel de transfert MOVEit.
 </t>
         </is>
       </c>
@@ -551,28 +565,169 @@
           <t>Métiers</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les activités du groupe Cegedim se déclinent autour de quatre pôles métiers principaux dans le domaine de la santé :
 des opérations de promotion médicale avec des solutions d'optimisation des points de vente, de promotion numérique, de statistiques de vente, d’information, de formation et de management à distance destinées à l'industrie pharmaceutique,
 l'édition et l'hébergement de logiciels de gestion de cabinet médical et de Pharmacie d'officine,
 l'édition et l'hébergement de logiciels de gestion de compagnie d'assurance et de mutuelle de santé,
 la gestion des flux financiers pour les professionnels de santé et les tiers payeurs.
-Un cinquième pôle regroupe des activités variées telles que la gestion externalisée de paies, l'infogérance de parc informatique et la location financière destinées aux pharmaciens et médecins français[15].
-Industrie pharmaceutique
-La majorité de ces activités a été revendue à IMS Health le 1er avril 2015[10].
-L'entreprise est présente dans 80 pays et réalise la moitié du CA hors de France[16].
+Un cinquième pôle regroupe des activités variées telles que la gestion externalisée de paies, l'infogérance de parc informatique et la location financière destinées aux pharmaciens et médecins français.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cegedim</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cegedim</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Métiers</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Industrie pharmaceutique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La majorité de ces activités a été revendue à IMS Health le 1er avril 2015.
+L'entreprise est présente dans 80 pays et réalise la moitié du CA hors de France.
 Concurrence : 	
-gestion de la relation client : Oracle (Siebel), Salesforce.com, Microsoft, SAP, Update[17] et éditeurs locaux ;
-données stratégiques : IMS Health, Taylor Nelson Sofres, GfK, Synovate[18], SDI Health[19] et acteurs locaux.
-Professionnels de santé
-Dans le monde de l'informatique médicale les outils mis à disposition des médecins pour la réalisation de leur activité professionnelle peuvent être définis comme : Logiciels de Gestion de Cabinet (LGC) et Logiciels d'Aide à la Prescription (LAP). Dans le cas des pharmaciens, on parlera de Logiciel de Gestion de l'Officine (LGO). Au sein du groupe Cegedim, c'est Smart Rx qui propose aux pharmaciens d'officine cette offre de LGO, pour les accompagner dans la prise en charge de leurs patients.
-En France Cegedim Logiciels Médicaux est classé second derrière CompuGroup Medical sur le marché des logiciels pour les médecins[20]. Cependant, en considérant l'offre logicielle pour professionnels de santé libéraux de manière globale, Cegedim est le seul éditeur à couvrir presque tous les besoins (il ne manque que les logiciels pour les laboratoires à l'offre Cegedim). CHS, de ce point de vue, surclasse toute concurrence en nombre d'utilisateurs. (Source rapports officiels de Sesam-Vital)
-Des services sur ces différents types de logiciel sont proposés par Cegedim dans plusieurs pays. Au Royaume-Uni, Cegedim intervient sur le marché des logiciels pour les médecins, marché fortement subventionné par le gouvernement britannique[21]. L'entreprise y a pour concurrents EMIS et iSoft[22].
-Assurances et flux de santé
-L'entreprise édite des logiciels destinés aux assurances et mutuelles de santé et s'occupe de la gestion des flux d’informations entre professionnels de santé (gestion du tiers payant — régime privé —, échange de données informatisé, etc.).
-Technologies et services
-L'entreprise effectue aussi du marketing direct (depuis 1974[23]) fondé sur les bases de données CEGEDIM (gestion d’échantillons médicaux, gestion d’abonnements, bases de données entreprises, etc.) et commercialise des services Internet et d'hébergement agréé de données de santé à caractère personnel[24]. Depuis 2001, elle propose des locations financières.
+gestion de la relation client : Oracle (Siebel), Salesforce.com, Microsoft, SAP, Update et éditeurs locaux ;
+données stratégiques : IMS Health, Taylor Nelson Sofres, GfK, Synovate, SDI Health et acteurs locaux.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cegedim</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cegedim</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Métiers</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Professionnels de santé</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le monde de l'informatique médicale les outils mis à disposition des médecins pour la réalisation de leur activité professionnelle peuvent être définis comme : Logiciels de Gestion de Cabinet (LGC) et Logiciels d'Aide à la Prescription (LAP). Dans le cas des pharmaciens, on parlera de Logiciel de Gestion de l'Officine (LGO). Au sein du groupe Cegedim, c'est Smart Rx qui propose aux pharmaciens d'officine cette offre de LGO, pour les accompagner dans la prise en charge de leurs patients.
+En France Cegedim Logiciels Médicaux est classé second derrière CompuGroup Medical sur le marché des logiciels pour les médecins. Cependant, en considérant l'offre logicielle pour professionnels de santé libéraux de manière globale, Cegedim est le seul éditeur à couvrir presque tous les besoins (il ne manque que les logiciels pour les laboratoires à l'offre Cegedim). CHS, de ce point de vue, surclasse toute concurrence en nombre d'utilisateurs. (Source rapports officiels de Sesam-Vital)
+Des services sur ces différents types de logiciel sont proposés par Cegedim dans plusieurs pays. Au Royaume-Uni, Cegedim intervient sur le marché des logiciels pour les médecins, marché fortement subventionné par le gouvernement britannique. L'entreprise y a pour concurrents EMIS et iSoft.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cegedim</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cegedim</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Métiers</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Assurances et flux de santé</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'entreprise édite des logiciels destinés aux assurances et mutuelles de santé et s'occupe de la gestion des flux d’informations entre professionnels de santé (gestion du tiers payant — régime privé —, échange de données informatisé, etc.).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cegedim</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cegedim</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Métiers</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Technologies et services</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'entreprise effectue aussi du marketing direct (depuis 1974) fondé sur les bases de données CEGEDIM (gestion d’échantillons médicaux, gestion d’abonnements, bases de données entreprises, etc.) et commercialise des services Internet et d'hébergement agréé de données de santé à caractère personnel. Depuis 2001, elle propose des locations financières.
 </t>
         </is>
       </c>
